--- a/public/data/InitialData/Хинты.xlsx
+++ b/public/data/InitialData/Хинты.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Герои" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="213">
   <si>
     <t>Задача</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Экономика</t>
   </si>
   <si>
-    <t>Ссылка</t>
-  </si>
-  <si>
-    <t>Ссылка в проекте</t>
-  </si>
-  <si>
     <t>https://ru.wikipedia.org/wiki/Mark_I_(%D1%82%D0%B0%D0%BD%D0%BA)</t>
   </si>
   <si>
@@ -336,9 +330,6 @@
     <t>https://ru.wikipedia.org/wiki/%D0%9E%D1%80%D0%B3%D0%B0%D0%BD%D0%B8%D0%B7%D0%B0%D1%86%D0%B8%D1%8F_%D0%92%D0%B0%D1%80%D1%88%D0%B0%D0%B2%D1%81%D0%BA%D0%BE%D0%B3%D0%BE_%D0%B4%D0%BE%D0%B3%D0%BE%D0%B2%D0%BE%D1%80%D0%B0</t>
   </si>
   <si>
-    <t>Дата</t>
-  </si>
-  <si>
     <t>Танки</t>
   </si>
   <si>
@@ -415,24 +406,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>Факт на русском</t>
-  </si>
-  <si>
-    <t>Факт на английском</t>
-  </si>
-  <si>
-    <t>Событие на русском</t>
-  </si>
-  <si>
-    <t>Событие на английском</t>
-  </si>
-  <si>
-    <t>Место на русском</t>
-  </si>
-  <si>
-    <t>Место на английском</t>
   </si>
   <si>
     <t>rusFact</t>
@@ -700,13 +673,16 @@
   </si>
   <si>
     <t>May 14, 1955 created ATS. The agreement was signed by Albania, Bulgaria, Hungary, East Germany, Poland, Romania, the USSR and Czechoslovakia</t>
+  </si>
+  <si>
+    <t>ВВП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,6 +858,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -916,6 +893,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1091,14 +1069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="85.28515625" bestFit="1" customWidth="1"/>
@@ -1107,12 +1085,12 @@
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,7 +1128,7 @@
         <v>43590</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1174,7 +1152,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1198,7 +1176,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1222,7 +1200,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1246,7 +1224,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1270,7 +1248,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1294,7 +1272,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1318,7 +1296,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1342,7 +1320,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1366,7 +1344,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1390,7 +1368,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1414,7 +1392,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1438,7 +1416,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1462,7 +1440,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1486,7 +1464,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1502,7 +1480,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1518,7 +1496,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1534,7 +1512,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1550,7 +1528,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1566,7 +1544,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1588,14 +1566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1605,7 +1583,7 @@
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -1631,14 +1609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="A4:D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="51" style="6" customWidth="1"/>
@@ -1653,876 +1631,901 @@
     <col min="12" max="13" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="E1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2">
+        <v>1944</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G14" si="0">IF(F2="численность ВС","military strength",IF(F2="Численность сухопутных войск","Ground Forces",IF(F2="Численность подводных лодок"," The number of submarines",IF(F2="Численность крупных кораблей","The number of large ships",IF(F2="Численность кораблей","The number of ships",IF(F2="Численность истребителей","The number of fighters",IF(F2="Численность военных самолетов","The number of military aircraft",IF(F2="Численность танков","The number of tanks",IF(F2="Потери погибшими солдатами в 1 мировой","Loss of dead soldiers in 1 world",IF(F2="Общие потери в 1 мировой войне","Total losses in World War 1",IF(F2="Потери погибшими солдатами во 2 мировой","The loss of dead soldiers in World 2",IF(F2="Общие потери во 2 мировой войне","Total losses in World War 2",IF(F2="Артиллерия","Artillery",IF(F2="Тяжелая артиллерия","Heavy artillery",IF(F2="ВВП","GDP",)))))))))))))))</f>
+        <v>The number of tanks</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(H2="Россия","Russia",IF(H2="Франция","France",IF(H2="Великобритания","Great Britain",IF(H2="Италия","Italy",IF(H2="США","USA",IF(H2="Германия","Germany",IF(H2="Китай","China",IF(H2="Япония","Japan",IF(H2="Польша","Poland",IF(H2="СССР","USSR",IF(H2="Румыния","Romania",IF(H2="Сербия","Serbia",IF(H2="Австро-Венгрия","Austria-Hungary",IF(H2="Турция","Turkey",IF(H2="Бельгия","Belgium",IF(H2="Греция","Greece",IF(H2="Португалия","Portugal",IF(H2="Черногория","Montenegro",IF(H2="Болгария","Bulgaria",IF(H2="Австралия","Australia",IF(H2="Канада","Canada",IF(H2="Индия","India",IF(H2="Новая Зеландия","New Zealand",IF(H2="Венгрия","Hungary",IF(H2="Австрия","Austria",IF(H2="Османская Империя","Ottoman Empire",IF(H2="Югославия","Yugoslavia",IF(H2="Эфиопия","Ethiopia",IF(H2="Финляндия","Finland",IF(H2="Филипины","Philippines",IF(H2="Бирма","Burma",IF(H2="Голландия","Netherlands",IF(H2="Тайланд","Thailand",IF(H2="Албания","Albania",IF(H2="Испания","Spain",IF(H2="ЮАР","South Africa",IF(H2="Куба","Cuba",IF(H2="Сингапур","Singapore",IF(H2="Чехословакия","Czechoslovakia",IF(H2="Дания","Denmark",IF(H2="Норвегия","Norway",IF(H2="Ирак","Iraq",IF(H2="Люксембург","Luxembourg",IF(H2="Ливия","Libyan Arab Jamahiriya",IF(H2="ГДР","GDR",IF(H2="ФРГ","Germany",IF(H2="КНР","PRC",)))))))))))))))))))))))))))))))))))))))))))))))</f>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1">
-      <c r="A3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3">
+        <v>1916</v>
+      </c>
+      <c r="F3" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="90">
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>The number of tanks</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I51" si="1">IF(H3="Россия","Russia",IF(H3="Франция","France",IF(H3="Великобритания","Great Britain",IF(H3="Италия","Italy",IF(H3="США","USA",IF(H3="Германия","Germany",IF(H3="Китай","China",IF(H3="Япония","Japan",IF(H3="Польша","Poland",IF(H3="СССР","USSR",IF(H3="Румыния","Romania",IF(H3="Сербия","Serbia",IF(H3="Австро-Венгрия","Austria-Hungary",IF(H3="Турция","Turkey",IF(H3="Бельгия","Belgium",IF(H3="Греция","Greece",IF(H3="Португалия","Portugal",IF(H3="Черногория","Montenegro",IF(H3="Болгария","Bulgaria",IF(H3="Австралия","Australia",IF(H3="Канада","Canada",IF(H3="Индия","India",IF(H3="Новая Зеландия","New Zealand",IF(H3="Венгрия","Hungary",IF(H3="Австрия","Austria",IF(H3="Османская Империя","Ottoman Empire",IF(H3="Югославия","Yugoslavia",IF(H3="Эфиопия","Ethiopia",IF(H3="Финляндия","Finland",IF(H3="Филипины","Philippines",IF(H3="Бирма","Burma",IF(H3="Голландия","Netherlands",IF(H3="Тайланд","Thailand",IF(H3="Албания","Albania",IF(H3="Испания","Spain",IF(H3="ЮАР","South Africa",IF(H3="Куба","Cuba",IF(H3="Сингапур","Singapore",IF(H3="Чехословакия","Czechoslovakia",IF(H3="Дания","Denmark",IF(H3="Норвегия","Norway",IF(H3="Ирак","Iraq",IF(H3="Люксембург","Luxembourg",IF(H3="Ливия","Libyan Arab Jamahiriya",IF(H3="ГДР","GDR",IF(H3="ФРГ","Germany",IF(H3="КНР","PRC",)))))))))))))))))))))))))))))))))))))))))))))))</f>
+        <v>Great Britain</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>1941</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>The number of tanks</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4">
-        <v>1944</v>
-      </c>
-      <c r="F4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" t="str">
-        <f>IF(F4="численность ВС","military strength",IF(F4="Численность сухопутных войск","Ground Forces",IF(F4="Численность подводных лодок"," The number of submarines",IF(F4="Численность крупных кораблей","The number of large ships",IF(F4="Численность кораблей","The number of ships",IF(F4="Численность истребителей","The number of fighters",IF(F4="Численность военных самолетов","The number of military aircraft",IF(F4="Численность танков","The number of tanks",IF(F4="Потери погибшими солдатами в 1 мировой","Loss of dead soldiers in 1 world",IF(F4="Общие потери в 1 мировой войне","Total losses in World War 1",IF(F4="Потери погибшими солдатами во 2 мировой","The loss of dead soldiers in World 2",IF(F4="Общие потери во 2 мировой войне","Total losses in World War 2",IF(F4="Артиллерия","Artillery",IF(F4="Тяжелая артиллерия","Heavy artillery",))))))))))))))</f>
+      <c r="C5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>1941</v>
+      </c>
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
         <v>The number of tanks</v>
       </c>
-      <c r="H4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" t="str">
-        <f>IF(H4="Россия","Russia",IF(H4="Франция","France",IF(H4="Великобритания","Great Britain",IF(H4="Италия","Italy",IF(H4="США","USA",IF(H4="Германия","Germany",IF(H4="Китай","China",IF(H4="Япония","Japan",IF(H4="Польша","Poland",IF(H4="СССР","USSR",IF(H4="Румыния","Romania",IF(H4="Сербия","Serbia",IF(H4="Австро-Венгрия","Austria-Hungary",IF(H4="Турция","Turkey",IF(H4="Бельгия","Belgium",IF(H4="Греция","Greece",IF(H4="Португалия","Portugal",IF(H4="Черногория","Montenegro",IF(H4="Болгария","Bulgaria",IF(H4="Австралия","Australia",IF(H4="Канада","Canada",IF(H4="Индия","India",IF(H4="Новая Зеландия","New Zealand",IF(H4="Венгрия","Hungary",IF(H4="Австрия","Austria",IF(H4="Османская Империя","Ottoman Empire",IF(H4="Югославия","Yugoslavia",IF(H4="Эфиопия","Ethiopia",IF(H4="Финляндия","Finland",IF(H4="Филипины","Philippines",IF(H4="Бирма","Burma",IF(H4="Голландия","Netherlands",IF(H4="Тайланд","Thailand",IF(H4="Албания","Albania",IF(H4="Испания","Spain",IF(H4="ЮАР","South Africa",IF(H4="Куба","Cuba",IF(H4="Сингапур","Singapore",IF(H4="Чехословакия","Czechoslovakia",IF(H4="Дания","Denmark",IF(H4="Норвегия","Norway",IF(H4="Ирак","Iraq",IF(H4="Люксембург","Luxembourg",IF(H4="Ливия","Libyan Arab Jamahiriya",IF(H4="ГДР","GDR",IF(H4="ФРГ","Germany",IF(H4="КНР","PRC",)))))))))))))))))))))))))))))))))))))))))))))))</f>
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="90">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>1916</v>
-      </c>
-      <c r="F5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G53" si="0">IF(F5="численность ВС","military strength",IF(F5="Численность сухопутных войск","Ground Forces",IF(F5="Численность подводных лодок"," The number of submarines",IF(F5="Численность крупных кораблей","The number of large ships",IF(F5="Численность кораблей","The number of ships",IF(F5="Численность истребителей","The number of fighters",IF(F5="Численность военных самолетов","The number of military aircraft",IF(F5="Численность танков","The number of tanks",IF(F5="Потери погибшими солдатами в 1 мировой","Loss of dead soldiers in 1 world",IF(F5="Общие потери в 1 мировой войне","Total losses in World War 1",IF(F5="Потери погибшими солдатами во 2 мировой","The loss of dead soldiers in World 2",IF(F5="Общие потери во 2 мировой войне","Total losses in World War 2",IF(F5="Артиллерия","Artillery",IF(F5="Тяжелая артиллерия","Heavy artillery",))))))))))))))</f>
-        <v>The number of tanks</v>
-      </c>
       <c r="H5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I5:I53" si="1">IF(H5="Россия","Russia",IF(H5="Франция","France",IF(H5="Великобритания","Great Britain",IF(H5="Италия","Italy",IF(H5="США","USA",IF(H5="Германия","Germany",IF(H5="Китай","China",IF(H5="Япония","Japan",IF(H5="Польша","Poland",IF(H5="СССР","USSR",IF(H5="Румыния","Romania",IF(H5="Сербия","Serbia",IF(H5="Австро-Венгрия","Austria-Hungary",IF(H5="Турция","Turkey",IF(H5="Бельгия","Belgium",IF(H5="Греция","Greece",IF(H5="Португалия","Portugal",IF(H5="Черногория","Montenegro",IF(H5="Болгария","Bulgaria",IF(H5="Австралия","Australia",IF(H5="Канада","Canada",IF(H5="Индия","India",IF(H5="Новая Зеландия","New Zealand",IF(H5="Венгрия","Hungary",IF(H5="Австрия","Austria",IF(H5="Османская Империя","Ottoman Empire",IF(H5="Югославия","Yugoslavia",IF(H5="Эфиопия","Ethiopia",IF(H5="Финляндия","Finland",IF(H5="Филипины","Philippines",IF(H5="Бирма","Burma",IF(H5="Голландия","Netherlands",IF(H5="Тайланд","Thailand",IF(H5="Албания","Albania",IF(H5="Испания","Spain",IF(H5="ЮАР","South Africa",IF(H5="Куба","Cuba",IF(H5="Сингапур","Singapore",IF(H5="Чехословакия","Czechoslovakia",IF(H5="Дания","Denmark",IF(H5="Норвегия","Norway",IF(H5="Ирак","Iraq",IF(H5="Люксембург","Luxembourg",IF(H5="Ливия","Libyan Arab Jamahiriya",IF(H5="ГДР","GDR",IF(H5="ФРГ","Germany",IF(H5="КНР","PRC",)))))))))))))))))))))))))))))))))))))))))))))))</f>
-        <v>Great Britain</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="60">
+        <v>109</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>The number of tanks</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="90">
+        <v>144</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>Russia</v>
+      </c>
+      <c r="J6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>The number of tanks</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="75">
+      <c r="J7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>The number of tanks</v>
+        <v>military strength</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>Russia</v>
+        <v>France</v>
       </c>
       <c r="J8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="93" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>The number of tanks</v>
+        <v>The loss of dead soldiers in World 2</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="105">
+    </row>
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
+        <v>170</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>military strength</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>France</v>
       </c>
       <c r="J10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="60">
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>The loss of dead soldiers in World 2</v>
+        <v>The number of military aircraft</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="150">
+        <v>115</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>USSR</v>
+      </c>
+      <c r="J11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E12">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>military strength</v>
+        <v>The number of military aircraft</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v>France</v>
+        <v>USSR</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="90">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>The number of military aircraft</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>USSR</v>
+        <v>USA</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="105">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14">
-        <v>1942</v>
+        <v>1951</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>The number of military aircraft</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" t="str">
+        <v>112</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>1943</v>
+      </c>
+      <c r="F15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(F15="численность ВС","military strength",IF(F15="Численность сухопутных войск","Ground Forces",IF(F15="Численность подводных лодок"," The number of submarines",IF(F15="Численность крупных кораблей","The number of large ships",IF(F15="Численность кораблей","The number of ships",IF(F15="Численность истребителей","The number of fighters",IF(F15="Численность военных самолетов","The number of military aircraft",IF(F15="Численность танков","The number of tanks",IF(F15="Потери погибшими солдатами в 1 мировой","Loss of dead soldiers in 1 world",IF(F15="Общие потери в 1 мировой войне","Total losses in World War 1",IF(F15="Потери погибшими солдатами во 2 мировой","The loss of dead soldiers in World 2",IF(F15="Общие потери во 2 мировой войне","Total losses in World War 2",IF(F15="Артиллерия","Artillery",IF(F15="Тяжелая артиллерия","Heavy artillery",IF(F15="ВВП","GDP",)))))))))))))))</f>
+        <v>GDP</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>1943</v>
+      </c>
+      <c r="F16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16:G51" si="2">IF(F16="численность ВС","military strength",IF(F16="Численность сухопутных войск","Ground Forces",IF(F16="Численность подводных лодок"," The number of submarines",IF(F16="Численность крупных кораблей","The number of large ships",IF(F16="Численность кораблей","The number of ships",IF(F16="Численность истребителей","The number of fighters",IF(F16="Численность военных самолетов","The number of military aircraft",IF(F16="Численность танков","The number of tanks",IF(F16="Потери погибшими солдатами в 1 мировой","Loss of dead soldiers in 1 world",IF(F16="Общие потери в 1 мировой войне","Total losses in World War 1",IF(F16="Потери погибшими солдатами во 2 мировой","The loss of dead soldiers in World 2",IF(F16="Общие потери во 2 мировой войне","Total losses in World War 2",IF(F16="Артиллерия","Artillery",IF(F16="Тяжелая артиллерия","Heavy artillery",IF(F16="ВВП","GDP",)))))))))))))))</f>
+        <v>GDP</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>1945</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>The loss of dead soldiers in World 2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>1945</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>The loss of dead soldiers in World 2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>USSR</v>
       </c>
-      <c r="J14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="90">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>1944</v>
-      </c>
-      <c r="F15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>The number of military aircraft</v>
-      </c>
-      <c r="H15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>USA</v>
-      </c>
-      <c r="J15" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="90">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>1951</v>
-      </c>
-      <c r="F16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>The number of military aircraft</v>
-      </c>
-      <c r="H16" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="120">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17">
-        <v>1943</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>USA</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="165">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18">
-        <v>1943</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>USA</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="120">
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>1945</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>The loss of dead soldiers in World 2</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
         <v>Germany</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="105">
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>The loss of dead soldiers in World 2</v>
+        <f t="shared" si="2"/>
+        <v>GDP</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
-        <v>USSR</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="105">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>1945</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>The loss of dead soldiers in World 2</v>
+        <f t="shared" si="2"/>
+        <v>The number of military aircraft</v>
       </c>
       <c r="H21" t="s">
         <v>110</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="105">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>military strength</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="90">
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>190</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>1945</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>The number of military aircraft</v>
+        <f t="shared" si="2"/>
+        <v>military strength</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="120">
+        <v>117</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>Poland</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E24">
+        <v>1940</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>military strength</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25">
         <v>1943</v>
       </c>
-      <c r="F24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
+      <c r="F25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>The number of military aircraft</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <v>1938</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>USSR</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>1938</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
         <v>military strength</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H27" t="s">
         <v>119</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v>Japan</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="75">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25">
-        <v>1945</v>
-      </c>
-      <c r="F25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>military strength</v>
-      </c>
-      <c r="H25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v>Poland</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="105">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26">
-        <v>1940</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>military strength</v>
-      </c>
-      <c r="H26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v>France</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="60">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27">
-        <v>1943</v>
-      </c>
-      <c r="F27" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>The number of military aircraft</v>
-      </c>
-      <c r="H27" t="s">
-        <v>121</v>
-      </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
-        <v>France</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="180">
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28">
         <v>1938</v>
@@ -2531,503 +2534,503 @@
         <v>32</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
-        <v>USSR</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="171.75" customHeight="1">
+        <v>Czechoslovakia</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>military strength</v>
       </c>
       <c r="H29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v>Spain</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="90">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>72</v>
+        <v>190</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
       </c>
       <c r="E30">
         <v>1938</v>
       </c>
       <c r="F30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>The number of military aircraft</v>
+      </c>
+      <c r="H30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30">
+        <f>IF(H30="Россия","Russia",IF(H30="Франция","France",IF(H30="Великобритания","Great Britain",IF(H30="Италия","Italy",IF(H30="США","USA",IF(H30="Германия","Germany",IF(H30="Китай","China",IF(H30="Япония","Japan",IF(H30="Польша","Poland",IF(H30="СССР","USSR",IF(H30="Румыния","Romania",IF(H30="Сербия","Serbia",IF(H30="Австро-Венгрия","Austria-Hungary",IF(H30="Турция","Turkey",IF(H30="Бельгия","Belgium",IF(H30="Греция","Greece",IF(H30="Португалия","Portugal",IF(H30="Черногория","Montenegro",IF(H30="Болгария","Bulgaria",IF(H30="Австралия","Australia",IF(H30="Канада","Canada",IF(H30="Индия","India",IF(H30="Новая Зеландия","New Zealand",IF(H30="Венгрия","Hungary",IF(H30="Австрия","Austria",IF(H30="Османская Империя","Ottoman Empire",IF(H30="Югославия","Yugoslavia",IF(H30="Эфиопия","Ethiopia",IF(H30="Финляндия","Finland",IF(H30="Филипины","Philippines",IF(H30="Бирма","Burma",IF(H30="Голландия","Netherlands",IF(H30="Тайланд","Thailand",IF(H30="Албания","Albania",IF(H30="Испания","Spain",IF(H30="ЮАР","South Africa",IF(H30="Куба","Cuba",IF(H30="Сингапур","Singapore",IF(H30="Чехословакия","Czechoslovakia",IF(H30="Дания","Denmark",IF(H30="Норвегия","Norway",IF(H30="Ирак","Iraq",IF(H30="Люксембург","Luxembourg",IF(H30="Ливия","Libyan Arab Jamahiriya",IF(H30="ГДР","GDR",IF(H30="ФРГ","Germany",IF(H30="КНР","PRC",)))))))))))))))))))))))))))))))))))))))))))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>1945</v>
+      </c>
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>Total losses in World War 2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>1945</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>Total losses in World War 2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>Great Britain</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v>Czechoslovakia</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="150">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31">
-        <v>1937</v>
-      </c>
-      <c r="F31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>military strength</v>
-      </c>
-      <c r="H31" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v>Japan</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="165">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32">
-        <v>1938</v>
-      </c>
-      <c r="F32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>The number of military aircraft</v>
-      </c>
-      <c r="H32" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32">
-        <f>IF(H32="Россия","Russia",IF(H32="Франция","France",IF(H32="Великобритания","Great Britain",IF(H32="Италия","Italy",IF(H32="США","USA",IF(H32="Германия","Germany",IF(H32="Китай","China",IF(H32="Япония","Japan",IF(H32="Польша","Poland",IF(H32="СССР","USSR",IF(H32="Румыния","Romania",IF(H32="Сербия","Serbia",IF(H32="Австро-Венгрия","Austria-Hungary",IF(H32="Турция","Turkey",IF(H32="Бельгия","Belgium",IF(H32="Греция","Greece",IF(H32="Португалия","Portugal",IF(H32="Черногория","Montenegro",IF(H32="Болгария","Bulgaria",IF(H32="Австралия","Australia",IF(H32="Канада","Canada",IF(H32="Индия","India",IF(H32="Новая Зеландия","New Zealand",IF(H32="Венгрия","Hungary",IF(H32="Австрия","Austria",IF(H32="Османская Империя","Ottoman Empire",IF(H32="Югославия","Yugoslavia",IF(H32="Эфиопия","Ethiopia",IF(H32="Финляндия","Finland",IF(H32="Филипины","Philippines",IF(H32="Бирма","Burma",IF(H32="Голландия","Netherlands",IF(H32="Тайланд","Thailand",IF(H32="Албания","Albania",IF(H32="Испания","Spain",IF(H32="ЮАР","South Africa",IF(H32="Куба","Cuba",IF(H32="Сингапур","Singapore",IF(H32="Чехословакия","Czechoslovakia",IF(H32="Дания","Denmark",IF(H32="Норвегия","Norway",IF(H32="Ирак","Iraq",IF(H32="Люксембург","Luxembourg",IF(H32="Ливия","Libyan Arab Jamahiriya",IF(H32="ГДР","GDR",IF(H32="ФРГ","Germany",IF(H32="КНР","PRC",)))))))))))))))))))))))))))))))))))))))))))))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="150">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33">
         <v>1945</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Total losses in World War 2</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
-        <v>Japan</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="75">
+        <v>France</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>1945</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Total losses in World War 2</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
-        <v>Great Britain</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="75">
+        <v>China</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35">
         <v>1945</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Total losses in World War 2</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
-        <v>France</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="105">
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1945</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Total losses in World War 2</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
-        <v>China</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="75">
+        <v>USSR</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E37">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>Total losses in World War 2</v>
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
-        <v>USA</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="60">
+        <v>USSR</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E38">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>Total losses in World War 2</v>
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
         <v>USSR</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="105">
+    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="F39" t="s">
         <v>32</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
         <v>USSR</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45">
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E40">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>Total losses in World War 2</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
         <v>USSR</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="120">
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <v>1944</v>
+      </c>
+      <c r="F41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>Total losses in World War 2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>USSR</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42">
+        <v>1945</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E41">
-        <v>1945</v>
-      </c>
-      <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>118</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="1"/>
-        <v>USSR</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="75">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42">
-        <v>1944</v>
-      </c>
-      <c r="F42" t="s">
-        <v>162</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>Total losses in World War 2</v>
-      </c>
-      <c r="H42" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="1"/>
-        <v>USSR</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="75">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="C43" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E43">
         <v>1944</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>Total losses in World War 2</v>
+        <f t="shared" si="2"/>
+        <v>Artillery</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="1"/>
-        <v>USSR</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="60">
+        <v>124</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E44">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" t="s">
@@ -3038,288 +3041,226 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="60">
+    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E45">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>Artillery</v>
+        <v>106</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="60">
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E46">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>military strength</v>
       </c>
       <c r="H46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="75">
+        <v>107</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E47">
         <v>1945</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>military strength</v>
+      </c>
+      <c r="H47" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H47" t="s">
-        <v>127</v>
-      </c>
-      <c r="I47">
+    </row>
+    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>1953</v>
+      </c>
+      <c r="F48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>military strength</v>
+      </c>
+      <c r="H48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48">
-        <v>1943</v>
-      </c>
-      <c r="F48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>military strength</v>
-      </c>
-      <c r="H48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="1"/>
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="75">
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>101</v>
       </c>
       <c r="E49">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>military strength</v>
+        <v>106</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="90">
+    <row r="50" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50">
+        <v>1949</v>
+      </c>
+      <c r="F50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>military strength</v>
+      </c>
+      <c r="H50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>Belgium</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E50">
-        <v>1953</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>military strength</v>
-      </c>
-      <c r="H50" t="s">
-        <v>115</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="45">
-      <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="C51" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E51">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>military strength</v>
       </c>
       <c r="H51" t="s">
-        <v>115</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="120">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52">
-        <v>1949</v>
-      </c>
-      <c r="F52" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v>military strength</v>
-      </c>
-      <c r="H52" t="s">
-        <v>131</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="1"/>
-        <v>Belgium</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="75">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53">
-        <v>1955</v>
-      </c>
-      <c r="F53" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v>military strength</v>
-      </c>
-      <c r="H53" t="s">
-        <v>120</v>
-      </c>
-      <c r="I53" t="str">
+        <v>117</v>
+      </c>
+      <c r="I51" t="str">
         <f t="shared" si="1"/>
         <v>Poland</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
